--- a/analysis/outgoing/estimates/UC_Coho_2019_20210909.xlsx
+++ b/analysis/outgoing/estimates/UC_Coho_2019_20210909.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seek/Documents/GitProjects/MyProjects/DabomPriestRapidsCoho/analysis/outgoing/estimates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864DA3D-0E7D-CF4E-8852-58A25B9A159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B56F75-E47F-3D47-B843-BA23428F3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23980" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Escapement" sheetId="1" r:id="rId1"/>
@@ -7303,7 +7303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7477,7 +7479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D65" activeCellId="2" sqref="D56 D63 D65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12012,12 +12016,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M1824"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="20.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
